--- a/icd.xlsx
+++ b/icd.xlsx
@@ -1,128 +1,200 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10808"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruilian/Documents/CKD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BAEB46-22E3-214A-8424-21A9BDE93385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60DFA192-6AA9-3348-AB36-3F20A59078A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表 1 - icd" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="工作表 1 - icd" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
+  <pivotCaches>
+    <pivotCache cacheId="11" r:id="rId3"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Freq</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="52">
+  <si>
+    <t>原始数据ICD</t>
+  </si>
+  <si>
+    <t>合并后的ICD</t>
+  </si>
+  <si>
+    <t>IgA肾病</t>
+  </si>
+  <si>
+    <t>N02.801</t>
+  </si>
+  <si>
+    <t>慢性肾脏病3期</t>
+  </si>
+  <si>
+    <t>N18.3</t>
+  </si>
+  <si>
+    <t>慢性肾脏病4期</t>
+  </si>
+  <si>
+    <t>N18.4</t>
+  </si>
+  <si>
+    <t>系统性红斑狼疮</t>
+  </si>
+  <si>
+    <t>M32.9</t>
+  </si>
+  <si>
+    <t>狼疮性肾炎</t>
+  </si>
+  <si>
+    <t>M32.105+</t>
+  </si>
+  <si>
+    <t>慢性肾脏病2期</t>
+  </si>
+  <si>
+    <t>N18.2</t>
+  </si>
+  <si>
+    <t>药物性系统性红斑狼疮</t>
+  </si>
+  <si>
+    <t>M32.006</t>
+  </si>
+  <si>
+    <t>肾病综合征</t>
+  </si>
+  <si>
+    <t>N04.903</t>
+  </si>
+  <si>
+    <t>慢性肾小球肾炎</t>
+  </si>
+  <si>
+    <t>N03.901</t>
+  </si>
+  <si>
+    <t>异体肾移植状态</t>
+  </si>
+  <si>
+    <t>Z94.002</t>
   </si>
   <si>
     <t>红斑狼疮</t>
   </si>
   <si>
-    <t>狼疮性肾炎</t>
-  </si>
-  <si>
-    <t>慢性肾小球肾炎</t>
+    <t>慢性肾炎综合征</t>
+  </si>
+  <si>
+    <t>N03.951</t>
+  </si>
+  <si>
+    <t>糖尿病伴有肾的并发症</t>
+  </si>
+  <si>
+    <t>E14.2</t>
+  </si>
+  <si>
+    <t>IGA肾病</t>
   </si>
   <si>
     <t>慢性肾炎</t>
   </si>
   <si>
-    <t>慢性肾炎综合征</t>
+    <t>N03.903</t>
+  </si>
+  <si>
+    <t>肾病综合征，肾小球轻微病变</t>
+  </si>
+  <si>
+    <t>慢性肾脏病 CKD2</t>
+  </si>
+  <si>
+    <t>慢性肾脏病 CKD4</t>
+  </si>
+  <si>
+    <t>系统性红斑狼疮，累及器官或系统</t>
+  </si>
+  <si>
+    <t>M32.10</t>
+  </si>
+  <si>
+    <t>张力性尿失禁</t>
+  </si>
+  <si>
+    <t>N39.301</t>
+  </si>
+  <si>
+    <t>慢性肾脏病1期</t>
+  </si>
+  <si>
+    <t>N18.1</t>
+  </si>
+  <si>
+    <t>下肢静脉曲张伴有炎症</t>
+  </si>
+  <si>
+    <t>I83.103</t>
+  </si>
+  <si>
+    <t>糖尿病性视网膜病变</t>
+  </si>
+  <si>
+    <t>H36.0*</t>
+  </si>
+  <si>
+    <t>系膜增生性IgA肾病</t>
   </si>
   <si>
     <t>慢性肾脏病 CKD1</t>
   </si>
   <si>
-    <t>慢性肾脏病 CKD2</t>
-  </si>
-  <si>
-    <t>慢性肾脏病 CKD4</t>
-  </si>
-  <si>
-    <t>慢性肾脏病1期</t>
-  </si>
-  <si>
-    <t>慢性肾脏病2期</t>
-  </si>
-  <si>
-    <t>慢性肾脏病3期</t>
-  </si>
-  <si>
-    <t>慢性肾脏病4期</t>
-  </si>
-  <si>
     <t>膜性肾病</t>
   </si>
   <si>
+    <t>N05.201</t>
+  </si>
+  <si>
+    <t>L93.001</t>
+  </si>
+  <si>
+    <t>L93.001</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
+  <si>
     <t>肾病综合征</t>
-  </si>
-  <si>
-    <t>肾病综合征，膜性肾病</t>
-  </si>
-  <si>
-    <t>肾病综合征，肾小球轻微病变</t>
-  </si>
-  <si>
-    <t>糖尿病伴有肾的并发症</t>
-  </si>
-  <si>
-    <t>糖尿病性视网膜病变</t>
-  </si>
-  <si>
-    <t>系膜增生性IgA肾病</t>
-  </si>
-  <si>
-    <t>系统性红斑狼疮</t>
-  </si>
-  <si>
-    <t>系统性红斑狼疮，累及器官或系统</t>
-  </si>
-  <si>
-    <t>下肢静脉曲张伴有炎症</t>
-  </si>
-  <si>
-    <t>药物性系统性红斑狼疮</t>
-  </si>
-  <si>
-    <t>异体肾移植状态</t>
-  </si>
-  <si>
-    <t>张力性尿失禁</t>
-  </si>
-  <si>
-    <t>IgA肾病</t>
-  </si>
-  <si>
-    <t>IGA肾病</t>
-  </si>
-  <si>
-    <t>原始数据ICD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合并后的ICD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N05.201</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -131,15 +203,41 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
       <sz val="9"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
@@ -154,11 +252,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -168,61 +266,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -236,34 +289,152 @@
       <top style="thin">
         <color indexed="10"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color rgb="FF999999"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="65"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color rgb="FF999999"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color rgb="FF999999"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="65"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
       </bottom>
       <diagonal/>
     </border>
@@ -273,36 +444,75 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" pivotButton="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -312,19 +522,19 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFBDC0BF"/>
-      <rgbColor rgb="FFA5A5A5"/>
-      <rgbColor rgb="FF3F3F3F"/>
-      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00BDC0BF"/>
+      <rgbColor rgb="00A5A5A5"/>
+      <rgbColor rgb="003F3F3F"/>
+      <rgbColor rgb="00DBDBDB"/>
       <rgbColor rgb="00FFFF00"/>
       <rgbColor rgb="00FF00FF"/>
       <rgbColor rgb="0000FFFF"/>
@@ -387,6 +597,376 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Rui Lian" refreshedDate="44447.43298020833" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="28" xr:uid="{8530E681-E89C-F249-A2BA-0549A2430F64}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:B29" sheet="工作表 1 - icd"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="原始数据ICD" numFmtId="49">
+      <sharedItems count="26">
+        <s v="IgA肾病"/>
+        <s v="慢性肾脏病3期"/>
+        <s v="慢性肾脏病4期"/>
+        <s v="系统性红斑狼疮"/>
+        <s v="狼疮性肾炎"/>
+        <s v="慢性肾脏病2期"/>
+        <s v="药物性系统性红斑狼疮"/>
+        <s v="肾病综合征"/>
+        <s v="慢性肾小球肾炎"/>
+        <s v="异体肾移植状态"/>
+        <s v="膜性肾病"/>
+        <s v="红斑狼疮"/>
+        <s v="慢性肾炎综合征"/>
+        <s v="糖尿病伴有肾的并发症"/>
+        <s v="慢性肾炎"/>
+        <s v="肾病综合征，肾小球轻微病变"/>
+        <s v="慢性肾脏病 CKD2"/>
+        <s v="慢性肾脏病 CKD4"/>
+        <s v="系统性红斑狼疮，累及器官或系统"/>
+        <s v="张力性尿失禁"/>
+        <s v="慢性肾脏病1期"/>
+        <s v="下肢静脉曲张伴有炎症"/>
+        <s v="糖尿病性视网膜病变"/>
+        <s v="系膜增生性IgA肾病"/>
+        <s v="慢性肾脏病 CKD1"/>
+        <s v="肾病综合征，膜性肾病" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="合并后的ICD" numFmtId="0">
+      <sharedItems count="21">
+        <s v="N02.801"/>
+        <s v="N18.3"/>
+        <s v="N18.4"/>
+        <s v="M32.9"/>
+        <s v="M32.105+"/>
+        <s v="N18.2"/>
+        <s v="M32.006"/>
+        <s v="N04.903"/>
+        <s v="N03.901"/>
+        <s v="Z94.002"/>
+        <s v="N05.201"/>
+        <s v="L93.001"/>
+        <s v="N03.951"/>
+        <s v="E14.2"/>
+        <s v="N03.903"/>
+        <s v="M32.10"/>
+        <s v="N39.301"/>
+        <s v="N18.1"/>
+        <s v="I83.103"/>
+        <s v="H36.0*"/>
+        <s v="N05.201；N05.201" u="1"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="28">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="10"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{61E4C6F7-3886-944C-93E7-B34D8DFC8A0B}" name="数据透视表1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A3:H31" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="27">
+        <item x="0"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="14"/>
+        <item x="12"/>
+        <item x="24"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="20"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="10"/>
+        <item x="7"/>
+        <item m="1" x="25"/>
+        <item x="15"/>
+        <item x="13"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="3"/>
+        <item x="18"/>
+        <item x="21"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="19"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="21">
+        <item x="13"/>
+        <item x="19"/>
+        <item x="18"/>
+        <item x="11"/>
+        <item x="6"/>
+        <item x="15"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="14"/>
+        <item x="12"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item m="1" x="20"/>
+        <item x="17"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="16"/>
+        <item x="9"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="27">
+    <i>
+      <x/>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="8"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="9"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="10"/>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="11"/>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="12"/>
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="13"/>
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="16"/>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="17"/>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="18"/>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="19"/>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="20"/>
+      <x v="24"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -586,8 +1166,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
@@ -607,7 +1185,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -637,7 +1214,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -663,7 +1239,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -689,7 +1264,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -715,7 +1289,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -741,7 +1314,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -767,7 +1339,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -793,7 +1364,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -819,7 +1389,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -845,7 +1414,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -881,8 +1449,6 @@
           <a:prstDash val="solid"/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
@@ -902,7 +1468,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -928,7 +1493,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -954,7 +1518,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -980,7 +1543,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1006,7 +1568,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1032,7 +1593,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1058,7 +1618,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1084,7 +1643,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1110,7 +1668,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1136,7 +1693,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1169,8 +1725,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
@@ -1190,7 +1744,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1220,7 +1773,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1246,7 +1798,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1272,7 +1823,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1298,7 +1848,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1324,7 +1873,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1350,7 +1898,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1376,7 +1923,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1402,7 +1948,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1428,7 +1973,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1460,283 +2004,667 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DDB996A-B6FD-8949-BE62-482BCC1FC5C8}">
+  <dimension ref="A3:H31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" ht="14">
+      <c r="A4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:8" ht="14">
+      <c r="A5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" ht="14">
+      <c r="A6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:8" ht="14">
+      <c r="A7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" ht="14">
+      <c r="A8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:8" ht="14">
+      <c r="A9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" ht="14">
+      <c r="A10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:8" ht="14">
+      <c r="A11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" ht="14">
+      <c r="A12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" ht="14">
+      <c r="A13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8" ht="14">
+      <c r="A14" s="13"/>
+      <c r="B14" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8" ht="14">
+      <c r="A15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8" ht="14">
+      <c r="A16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8" ht="14">
+      <c r="A17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:8" ht="14">
+      <c r="A18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="1:8" ht="14">
+      <c r="A19" s="13"/>
+      <c r="B19" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:8" ht="14">
+      <c r="A20" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:8" ht="14">
+      <c r="A21" s="13"/>
+      <c r="B21" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:8" ht="14">
+      <c r="A22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="1:8" ht="14">
+      <c r="A23" s="13"/>
+      <c r="B23" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:8" ht="14">
+      <c r="A24" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="1:8" ht="14">
+      <c r="A25" s="13"/>
+      <c r="B25" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:8" ht="14">
+      <c r="A26" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="1:8" ht="14">
+      <c r="A27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:8" ht="14">
+      <c r="A28" s="13"/>
+      <c r="B28" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="1:8" ht="14">
+      <c r="A29" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" spans="1:8" ht="14">
+      <c r="A30" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" spans="1:8" ht="14">
+      <c r="A31" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="22"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView showGridLines="0" zoomScale="116" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="26.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.33203125" style="1"/>
+    <col min="1" max="1" width="30.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2" ht="20.25" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="20.25" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="20" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="20" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="20" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="20" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="20" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="20" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="20" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="20" customHeight="1">
+      <c r="A11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="20" customHeight="1">
+      <c r="A12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="20" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="20" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="20" customHeight="1">
+      <c r="A15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="20" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="20" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="20" customHeight="1">
+      <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="4">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="6">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="6">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="6">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="6">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="6">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
-      <c r="A8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="6">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
-      <c r="A9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="6">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
-      <c r="A10" s="5" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="20" customHeight="1">
+      <c r="A19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="20" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="20" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="20" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="20" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="20" customHeight="1">
+      <c r="A24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="20" customHeight="1">
+      <c r="A25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="20" customHeight="1">
+      <c r="A26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="20" customHeight="1">
+      <c r="A27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="6">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
-      <c r="A12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="6">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="6">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="6">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="6">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="6">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="6">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1">
-      <c r="A18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="6">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="6">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1">
-      <c r="A20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="6">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="6">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1">
-      <c r="A22" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="6">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1">
-      <c r="A23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="6">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1">
-      <c r="A24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1">
-      <c r="A25" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1">
-      <c r="A26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1">
-      <c r="A27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1">
-      <c r="A28" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="6">
-        <v>13</v>
+    </row>
+    <row r="28" spans="1:2" ht="20" customHeight="1">
+      <c r="A28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="20" customHeight="1">
+      <c r="A29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C28">
-    <sortCondition descending="1" ref="C2:C28"/>
-  </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
